--- a/requirements/cqs.xlsx
+++ b/requirements/cqs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="170">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">What is the identifier of the model (URI, id)?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:identifier, id:MLModel, schema:URL</t>
+    <t xml:space="preserve">schema:identifier, ind:MLModel, schema:URL</t>
   </si>
   <si>
     <t xml:space="preserve">Unique identifier for the model</t>
@@ -55,13 +55,10 @@
     <t xml:space="preserve">Daniel, FAIR4ML Hackathon</t>
   </si>
   <si>
-    <t xml:space="preserve">From schema:Thing</t>
-  </si>
-  <si>
     <t xml:space="preserve">What is the version number of this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:version, id:MLModel, schema:Text</t>
+    <t xml:space="preserve">schema:version, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Models may be modified and have multiple versions associated with them. Version number may not always be a number (e.g., semantic versioning)</t>
@@ -70,35 +67,7 @@
     <t xml:space="preserve">Is there a previous version of this model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:successorOf,  id:MLModel, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MLModel</t>
-    </r>
+    <t xml:space="preserve">schema:successorOf,  ind:MLModel, ind:MLModel</t>
   </si>
   <si>
     <t xml:space="preserve">Property to track how a model has evolved through time</t>
@@ -110,54 +79,7 @@
     <t xml:space="preserve">What is the base model used for this model? Has this model been fine tuned from another one?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:fineTunedFrom, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MLModel, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MLModel</t>
-    </r>
+    <t xml:space="preserve">ind:fineTunedFrom, ind:MLModel, ind:MLModel</t>
   </si>
   <si>
     <t xml:space="preserve">Key for provenance and model biases</t>
@@ -169,25 +91,7 @@
     <t xml:space="preserve">What are the keywords that may be associated with this model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:keywords, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">schema:keywords, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Keywords may be URLs or defined terms, but we are simplifying</t>
@@ -196,49 +100,13 @@
     <t xml:space="preserve">What is the name of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:name, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">schema:name, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Can you provide a brief description (2 sentences) of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:headline, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">schema:headline, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">This element is required for users to have a quick idea of the objective of the model (without reading the whole description).</t>
@@ -250,97 +118,25 @@
     <t xml:space="preserve">Can you provide a full description (including objectives and technical details) of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:description, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Description</t>
-    </r>
+    <t xml:space="preserve">schema:description, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Who developed this version of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:author, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Person</t>
-    </r>
+    <t xml:space="preserve">schema:author, ind:MLModel, schema:Person</t>
   </si>
   <si>
     <t xml:space="preserve">Who funded the development of this version of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:funder, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Person (or Org)</t>
-    </r>
+    <t xml:space="preserve">schema:funder, ind:MLModel, schema:Person (or Org)</t>
   </si>
   <si>
     <t xml:space="preserve">Who uploaded this version of the model to a public platform?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:sharedBy, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Person (or Org)</t>
-    </r>
+    <t xml:space="preserve">ind:sharedBy, ind:MLModel, schema:Person (or Org)</t>
   </si>
   <si>
     <t xml:space="preserve">Taken from HuggingFace model card</t>
@@ -349,25 +145,7 @@
     <t xml:space="preserve">For which task was this model trained? (e.g., machine translation, image classification, etc.)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:task, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">ind:task, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Pablo, Patricia</t>
@@ -376,25 +154,7 @@
     <t xml:space="preserve">What type of model is this? SVM, NB, Clustering, etc.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:modelCategory, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">ind:modelCategory, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Required to specify the model type we are dealing with</t>
@@ -409,25 +169,7 @@
     <t xml:space="preserve">Which languages has this model been trained for? (only NLP)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:inLanguage, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">schema:inLanguage, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel, Patricia</t>
@@ -439,49 +181,16 @@
     <t xml:space="preserve">What is the URI of the license of this version of the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:license, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:License</t>
-    </r>
+    <t xml:space="preserve">schema:license, ind:MLModel, schema:URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Licenses can also be creative work, we are simplifying for annotation</t>
   </si>
   <si>
     <t xml:space="preserve">What is the model size (e.g., billion parameters)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:parameterSize, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">ind:parameterSize, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">ML researchers often discriminate with the parameter size of the model</t>
@@ -496,83 +205,19 @@
     <t xml:space="preserve">What is the status of the model (deprecated, in progress, stable, etc.)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">codemeta:developmentStatus, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">codemeta:developmentStatus, ind:MLModel, schema:Text </t>
   </si>
   <si>
     <t xml:space="preserve">When was this version of the model developed?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:dateCreated, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Date</t>
-    </r>
+    <t xml:space="preserve">schema:dateCreated, ind:MLModel, schema:Date</t>
   </si>
   <si>
     <t xml:space="preserve">What is the citation associated with this version of the model? </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:citation, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text (or schema:URL)</t>
-    </r>
+    <t xml:space="preserve">schema:citation, ind:MLModel, schema:Text (or schema:URL)</t>
   </si>
   <si>
     <t xml:space="preserve">The citation may be a version of a model, or a zenodo doi. It may not be the reference publication</t>
@@ -581,25 +226,7 @@
     <t xml:space="preserve">When has this version of a model been modified?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:dateModified, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Date</t>
-    </r>
+    <t xml:space="preserve">schema:dateModified, ind:MLModel, schema:Date</t>
   </si>
   <si>
     <t xml:space="preserve">Model Sources</t>
@@ -608,25 +235,7 @@
     <t xml:space="preserve">What is the repo in which the code for training the model is published?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">schema:codeRepository, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:URL</t>
-    </r>
+    <t xml:space="preserve">schema:codeRepository, ind:MLModel, schema:URL</t>
   </si>
   <si>
     <t xml:space="preserve">Published models often point to the sources used to produce the model. For example, many models are published in HuggingFace, but the code used to train them is in GitHub</t>
@@ -635,49 +244,13 @@
     <t xml:space="preserve">What is the reference publication related to the model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">codemeta:referencePublication, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text</t>
-    </r>
+    <t xml:space="preserve">codemeta:referencePublication, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What is the library in which the model was developed?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:developmentLibrary, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, schema:Text or URL</t>
-    </r>
+    <t xml:space="preserve">ind:developmentLibrary, ind:MLModel, schema:Text or URL</t>
   </si>
   <si>
     <t xml:space="preserve">A model may be developed for a particular library or framework. Knowing the library is key when thinking about model deployment</t>
@@ -692,22 +265,19 @@
     <t xml:space="preserve">Where can I download this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:modelDistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension of Schema:Distribution</t>
+    <t xml:space="preserve">schema:distribution, ind:MLModel, ind:MLModelDownload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension of Schema:MediaObject</t>
   </si>
   <si>
     <t xml:space="preserve">Pablo, Daniel, Patricia</t>
   </si>
   <si>
-    <t xml:space="preserve">May need a schema:ModelDownload class</t>
-  </si>
-  <si>
     <t xml:space="preserve">What are the formats supported by this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:encodingFormat</t>
+    <t xml:space="preserve">schema:encodingFormat, nd:MLModelDownload, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Pablo, Clark, Daniel</t>
@@ -716,7 +286,7 @@
     <t xml:space="preserve">What is the URL of the file associated with this distribution of the model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:contentUrl</t>
+    <t xml:space="preserve">schema:contentUrl, ind:MLModelDownload, schema:URL</t>
   </si>
   <si>
     <t xml:space="preserve">Daniel</t>
@@ -725,16 +295,19 @@
     <t xml:space="preserve">What is the size of the file associated with this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:contentSize</t>
+    <t xml:space="preserve">schema:contentSize, ind:MLModelDownload, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Clark, Daniel</t>
   </si>
   <si>
+    <t xml:space="preserve">The size is in MB, the unit should be explicit in the quantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">Has this model been quantized in any distribution?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:quantizationMethod</t>
+    <t xml:space="preserve">ind:quantizationMethod, ind:MLModelDownload, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">ML Models can be quantized to be executable in cheaper infrastructure</t>
@@ -746,7 +319,7 @@
     <t xml:space="preserve">How many bits were used in the quantization process?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:quantizationBits</t>
+    <t xml:space="preserve">ind:quantizationBits, ind:MLModelDownload, schema:Number</t>
   </si>
   <si>
     <t xml:space="preserve">The number of bits implies the reduction that occurred in the quantization process</t>
@@ -758,25 +331,7 @@
     <t xml:space="preserve">How do you use the model in your code?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:usageInstructions, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">id:MLModel, Schema:Text</t>
-    </r>
+    <t xml:space="preserve">ind:usageInstructions, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">How can you fine tune the model?</t>
@@ -788,7 +343,7 @@
     <t xml:space="preserve">What are the potential risks when using this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:modelRisks</t>
+    <t xml:space="preserve">ind:modelRisks, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Model provenance</t>
@@ -797,7 +352,7 @@
     <t xml:space="preserve">What are the datasets used to train this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:trainedOn, id:MLModel, schema:Dataset</t>
+    <t xml:space="preserve">ind:trainedOn, ind:MLModel, schema:Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Overlap with m4ml but different range</t>
@@ -806,25 +361,7 @@
     <t xml:space="preserve">What are the datasets used to validate this model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:validatedOn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, id:MLModel, schema:Dataset</t>
-    </r>
+    <t xml:space="preserve">ind:validatedOn, ind:MLModel, schema:Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Model evaluation</t>
@@ -833,64 +370,28 @@
     <t xml:space="preserve">What are the datasets used to test this model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:testedOn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, id:MLModel, schema:Dataset</t>
-    </r>
+    <t xml:space="preserve">ind:testedOn, ind:MLModel, schema:Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">What are the datasets used to evaluate this model?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">id:evaluatedOn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">, id:MLModel, schema:Dataset</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">validation != evaluation</t>
+    <t xml:space="preserve">ind:evaluatedOn, ind:MLModel, schema:Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validation is different from evaluation or training. A model may have been train/tested with a dataset and evaluated against a benchmark</t>
   </si>
   <si>
     <t xml:space="preserve">What are the metrics used in the evaluation of this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:evaluationMetrics</t>
+    <t xml:space="preserve">ind:evaluationMetrics, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What are the evaluation results of this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:evaluationResults</t>
+    <t xml:space="preserve">ind:evaluationResults, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Brief explanation of the results</t>
@@ -902,37 +403,40 @@
     <t xml:space="preserve">What are the software requirements needed to run this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:softwareRequirements</t>
+    <t xml:space="preserve">schema:softwareRequirements, ind:MLModel, schema:Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requirements may be a URL, but we simplify with text</t>
   </si>
   <si>
     <t xml:space="preserve">What are the storage requirements needed to run this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:storageRequirements</t>
+    <t xml:space="preserve">schema:storageRequirements, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What are the memory  (RAM) requirements needed to run this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:memoryRequirements</t>
+    <t xml:space="preserve">schema:memoryRequirements, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What operating systems are required to run this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:operatingSystem</t>
+    <t xml:space="preserve">schema:operatingSystem, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What are the processor requirements needed to run this model (if any)?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:processorRequirements</t>
+    <t xml:space="preserve">schema:processorRequirements, ind:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">What are the GPU requirements for running this model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:GPUrequirements</t>
+    <t xml:space="preserve">ind:GPUrequirements, id:MLModel, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">Model environmental impact</t>
@@ -941,37 +445,43 @@
     <t xml:space="preserve">How much time did the model take to train?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:duration id:hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We need a new action to capture this</t>
+    <t xml:space="preserve">schema:duration, ind:ModelTraining, schema:Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An activity produces a model. The activity of creating the model is what records the time. schema:result tied the activity to the model. Duration is measured following ISO 8601 duration format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov:wasGeneratedBy added to make the description model-centric and align to PROV</t>
   </si>
   <si>
     <t xml:space="preserve">What is the cloud provider (if any)? </t>
   </si>
   <si>
-    <t xml:space="preserve">schema:provider</t>
-  </si>
-  <si>
-    <t xml:space="preserve">needs revision</t>
+    <t xml:space="preserve">ind:cloudProvider, ind:ModelTraining, schema:Organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extends schema:provider</t>
   </si>
   <si>
     <t xml:space="preserve">What was the hardware type used for this training this version of the model?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:trainedOn</t>
+    <t xml:space="preserve">ind:hardwareType, ind:ModelTraining, schema:Text</t>
   </si>
   <si>
     <t xml:space="preserve">In which region was this version of the model trained?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:trainingRegion</t>
+    <t xml:space="preserve">ind:trainingRegion, ind:ModelTraining, schema:Text or schema:Place</t>
   </si>
   <si>
     <t xml:space="preserve">What are the carbon emission associated with this model (in CO2e)?</t>
   </si>
   <si>
-    <t xml:space="preserve">id:hasCO2eEmissions</t>
+    <t xml:space="preserve">ind:hasCO2eEmissions, ind:MLModel, schema:Text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plain number of emissions (CO2eq) associated with a model</t>
   </si>
   <si>
     <t xml:space="preserve">Model meta-metadata</t>
@@ -980,13 +490,46 @@
     <t xml:space="preserve">Who is the creator (and maintainer) for the metadata associated for this model? </t>
   </si>
   <si>
-    <t xml:space="preserve">schema:sdPublisher, schema:CreativeWork, schema:Person (or schema:Organization)</t>
+    <t xml:space="preserve">schema:sdPublisher, ind:ModelCard, schema:Person (or schema:Organization)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basic metadata on the model card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extends schema:CreativeWork</t>
   </si>
   <si>
     <t xml:space="preserve">What is the license of the metadata?</t>
   </si>
   <si>
-    <t xml:space="preserve">schema:sdLicense, schema:CreativeWork, schema:License</t>
+    <t xml:space="preserve">schema:sdLicense, ind:ModelCard, schema:URL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The license of the metadata should be clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which model is described in this model card?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema:about, ind:ModelCard, ind:MLModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Links the metadata record to the record it describes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legend:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inesdata new terms/properties are highlighted in green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namespaces:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind:https://w3id.org/inesdata#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schema: http://schema.org/</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +563,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -1028,17 +570,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1050,6 +587,14 @@
     <font>
       <strike val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
@@ -1144,128 +689,140 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1346,330 +903,328 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="68.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="51.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="44.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="30.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.64"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="E12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="3" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -1689,7 +1244,7 @@
       <c r="D22" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F22" s="13"/>
@@ -1715,19 +1270,19 @@
     </row>
     <row r="23" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10"/>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C24" s="14" t="s">
@@ -1736,7 +1291,7 @@
       <c r="D24" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1756,9 +1311,7 @@
       <c r="E25" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>84</v>
-      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -1779,83 +1332,86 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="3" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="3" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15"/>
+      <c r="B28" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>94</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15"/>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>97</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15"/>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>93</v>
+      <c r="E31" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1869,7 +1425,9 @@
         <v>103</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="13"/>
@@ -1891,7 +1449,7 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="13"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="18"/>
       <c r="B33" s="20" t="s">
         <v>104</v>
@@ -1922,13 +1480,16 @@
       <c r="X33" s="21"/>
       <c r="Y33" s="21"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="18"/>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>107</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +1503,9 @@
         <v>110</v>
       </c>
       <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="E35" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="F35" s="13" t="s">
         <v>111</v>
       </c>
@@ -1968,13 +1531,16 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="18"/>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>112</v>
       </c>
       <c r="C36" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="F36" s="25" t="s">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1989,8 +1555,10 @@
         <v>116</v>
       </c>
       <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G37" s="13"/>
@@ -2015,40 +1583,48 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="18"/>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18"/>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>121</v>
       </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="18"/>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="18" t="s">
@@ -2061,10 +1637,12 @@
         <v>127</v>
       </c>
       <c r="D41" s="13"/>
-      <c r="E41" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="13"/>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>128</v>
+      </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -2087,169 +1665,239 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="18"/>
-      <c r="B42" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="3" t="s">
+      <c r="B42" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="C42" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="18"/>
-      <c r="B43" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="18"/>
-      <c r="B44" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="C44" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="18"/>
-      <c r="B45" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="28" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="18"/>
-      <c r="B46" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="29"/>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="B47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="17" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
-      <c r="B48" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="15"/>
-      <c r="B49" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="15"/>
-      <c r="B50" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="15"/>
-      <c r="B51" s="27" t="s">
-        <v>149</v>
+      <c r="B51" s="29" t="s">
+        <v>151</v>
       </c>
       <c r="C51" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="29"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="29"/>
-      <c r="Q51" s="29"/>
-      <c r="R51" s="29"/>
-      <c r="S51" s="29"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="29"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="29"/>
-      <c r="Y51" s="29"/>
+        <v>152</v>
+      </c>
+      <c r="D51" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E51" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>10</v>
+      <c r="A52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>10</v>
+      <c r="A53" s="3"/>
+      <c r="B53" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="32" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2264,6 +1912,10 @@
     <mergeCell ref="A47:A51"/>
     <mergeCell ref="A52:A53"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C60" r:id="rId1" display="ind:https://w3id.org/inesdata#"/>
+    <hyperlink ref="C61" r:id="rId2" display="schema: http://schema.org/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
